--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value183.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value183.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.155736944698928</v>
+        <v>3.613015413284302</v>
       </c>
       <c r="B1">
-        <v>1.474435912047338</v>
+        <v>6.223897933959961</v>
       </c>
       <c r="C1">
-        <v>2.180003676393029</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.566206911466783</v>
+        <v>3.597001552581787</v>
       </c>
       <c r="E1">
-        <v>0.8914518486480135</v>
+        <v>1.991630434989929</v>
       </c>
     </row>
   </sheetData>
